--- a/MonteCarlo/MonteCarlo.xlsx
+++ b/MonteCarlo/MonteCarlo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito-dante\Desktop\SIMULACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito-dante\Documents\GitHub\empezando-con-git\MonteCarlo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="96" windowWidth="20112" windowHeight="8520"/>
+    <workbookView xWindow="8052" yWindow="96" windowWidth="20112" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -526,79 +526,79 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="18">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="25">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>9</c:v>
@@ -607,7 +607,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,11 +622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="911901120"/>
-        <c:axId val="911915808"/>
+        <c:axId val="-51088448"/>
+        <c:axId val="-51087904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="911901120"/>
+        <c:axId val="-51088448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,12 +676,12 @@
             <a:endParaRPr lang="es-BO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="911915808"/>
+        <c:crossAx val="-51087904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="911915808"/>
+        <c:axId val="-51087904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +732,7 @@
             <a:endParaRPr lang="es-BO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="911901120"/>
+        <c:crossAx val="-51088448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -832,7 +832,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -944,7 +943,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -975,79 +973,79 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="18">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="25">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>9</c:v>
@@ -1056,7 +1054,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,11 +1072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="911906016"/>
-        <c:axId val="911903296"/>
+        <c:axId val="-2065529984"/>
+        <c:axId val="-2065532704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="911906016"/>
+        <c:axId val="-2065529984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1119,7 @@
             <a:endParaRPr lang="es-BO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="911903296"/>
+        <c:crossAx val="-2065532704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1129,7 +1127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="911903296"/>
+        <c:axId val="-2065532704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1137,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="911906016"/>
+        <c:crossAx val="-2065529984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2639,8 +2637,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A3:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3020,7 +3018,7 @@
       </c>
       <c r="E39" s="3">
         <f ca="1">RAND()</f>
-        <v>0.78787705075762682</v>
+        <v>0.8092773284191086</v>
       </c>
       <c r="F39" s="22">
         <f ca="1">VLOOKUP(E39,$F$6:$H$10,3)</f>
@@ -3045,11 +3043,11 @@
       </c>
       <c r="E40" s="3">
         <f t="shared" ref="E40:E41" ca="1" si="1">RAND()</f>
-        <v>0.36761495298623559</v>
+        <v>7.2811043827966881E-2</v>
       </c>
       <c r="F40" s="22">
         <f t="shared" ref="F40:F68" ca="1" si="2">VLOOKUP(E40,$F$6:$H$10,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" ref="G40:G68" ca="1" si="3">IF(D40&lt;=4,RAND(),0)</f>
@@ -3066,11 +3064,11 @@
       </c>
       <c r="D41" s="23">
         <f t="shared" ref="D41:D68" ca="1" si="5">IF(H40=0,(D40-F40),(D40+10))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79144941982181505</v>
+        <v>0.82281842909539338</v>
       </c>
       <c r="F41" s="22">
         <f t="shared" ca="1" si="2"/>
@@ -3091,23 +3089,23 @@
       </c>
       <c r="D42" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" s="3">
         <f ca="1">RAND()</f>
-        <v>0.90266466496936648</v>
+        <v>0.36337146984770208</v>
       </c>
       <c r="F42" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9791603352509477</v>
+        <v>0</v>
       </c>
       <c r="H42" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J42" s="21"/>
     </row>
@@ -3117,23 +3115,23 @@
       </c>
       <c r="D43" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E43" s="3">
         <f ca="1">RAND()</f>
-        <v>3.9710897747450846E-2</v>
+        <v>0.96062205176825655</v>
       </c>
       <c r="F43" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.2517521133945938</v>
       </c>
       <c r="H43" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
         <v>20</v>
@@ -3145,15 +3143,15 @@
       </c>
       <c r="D44" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" ref="E44:E68" ca="1" si="6">RAND()</f>
-        <v>0.15377284372028222</v>
+        <v>0.66704393399535444</v>
       </c>
       <c r="F44" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3173,15 +3171,15 @@
       </c>
       <c r="D45" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42999465905644141</v>
+        <v>8.1129737575757699E-2</v>
       </c>
       <c r="F45" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3201,11 +3199,11 @@
       </c>
       <c r="D46" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61032973537800661</v>
+        <v>0.48717964015646575</v>
       </c>
       <c r="F46" s="22">
         <f t="shared" ca="1" si="2"/>
@@ -3226,23 +3224,23 @@
       </c>
       <c r="D47" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26992289355744203</v>
+        <v>0.66981727446159645</v>
       </c>
       <c r="F47" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.50053973820731645</v>
       </c>
       <c r="H47" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="3:10">
@@ -3251,36 +3249,36 @@
       </c>
       <c r="D48" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21011761751511748</v>
+        <v>0.64341967815249468</v>
       </c>
       <c r="F48" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5201746512265043</v>
+        <v>0</v>
       </c>
       <c r="H48" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
       <c r="C49" s="2">
         <v>11</v>
       </c>
       <c r="D49" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4521905525590918</v>
+        <v>0.43004310905255494</v>
       </c>
       <c r="F49" s="22">
         <f t="shared" ca="1" si="2"/>
@@ -3294,22 +3292,25 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:8">
+      <c r="J49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
       <c r="C50" s="2">
         <v>12</v>
       </c>
       <c r="D50" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.29684447764586464</v>
+        <v>0.93994511818897386</v>
       </c>
       <c r="F50" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3319,18 +3320,22 @@
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:8">
+      <c r="J50">
+        <f>$AJ49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
       <c r="C51" s="2">
         <v>13</v>
       </c>
       <c r="D51" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24271581822558597</v>
+        <v>9.2567662508379889E-2</v>
       </c>
       <c r="F51" s="22">
         <f t="shared" ca="1" si="2"/>
@@ -3338,28 +3343,28 @@
       </c>
       <c r="G51" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.44175953295790538</v>
       </c>
       <c r="H51" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
       <c r="C52" s="2">
         <v>14</v>
       </c>
       <c r="D52" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41335400651432952</v>
+        <v>6.3281635081154142E-2</v>
       </c>
       <c r="F52" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3370,17 +3375,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:8">
+    <row r="53" spans="3:10">
       <c r="C53" s="2">
         <v>15</v>
       </c>
       <c r="D53" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.70446502195462557</v>
+        <v>0.80542777571694846</v>
       </c>
       <c r="F53" s="22">
         <f t="shared" ca="1" si="2"/>
@@ -3388,28 +3393,28 @@
       </c>
       <c r="G53" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77970962459326587</v>
+        <v>0</v>
       </c>
       <c r="H53" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
       <c r="C54" s="2">
         <v>16</v>
       </c>
       <c r="D54" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20161382066405087</v>
+        <v>0.95909233705511687</v>
       </c>
       <c r="F54" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3420,17 +3425,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:8">
+    <row r="55" spans="3:10">
       <c r="C55" s="2">
         <v>17</v>
       </c>
       <c r="D55" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66933967590939514</v>
+        <v>0.76051621234393285</v>
       </c>
       <c r="F55" s="22">
         <f t="shared" ca="1" si="2"/>
@@ -3438,28 +3443,28 @@
       </c>
       <c r="G55" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.17657662470049285</v>
       </c>
       <c r="H55" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10">
       <c r="C56" s="2">
         <v>18</v>
       </c>
       <c r="D56" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>3.522871368177416E-3</v>
+        <v>0.34421269959281486</v>
       </c>
       <c r="F56" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3470,21 +3475,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:8">
+    <row r="57" spans="3:10">
       <c r="C57" s="2">
         <v>19</v>
       </c>
       <c r="D57" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.88630205204741741</v>
+        <v>0.57062167181814716</v>
       </c>
       <c r="F57" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3495,42 +3500,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:8">
+    <row r="58" spans="3:10">
       <c r="C58" s="1">
         <v>20</v>
       </c>
       <c r="D58" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2834101743657903</v>
+        <v>0.56735288129714023</v>
       </c>
       <c r="F58" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40303497602591554</v>
+        <v>0</v>
       </c>
       <c r="H58" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10">
       <c r="C59" s="2">
         <v>21</v>
       </c>
       <c r="D59" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.87045460546679443</v>
+        <v>0.90880105474696182</v>
       </c>
       <c r="F59" s="22">
         <f t="shared" ca="1" si="2"/>
@@ -3538,28 +3543,28 @@
       </c>
       <c r="G59" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.19026760851993119</v>
       </c>
       <c r="H59" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10">
       <c r="C60" s="2">
         <v>22</v>
       </c>
       <c r="D60" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9923428875674446</v>
+        <v>0.38619058040732168</v>
       </c>
       <c r="F60" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3570,42 +3575,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:8">
+    <row r="61" spans="3:10">
       <c r="C61" s="2">
         <v>23</v>
       </c>
       <c r="D61" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85206842632546442</v>
+        <v>7.8706820707605041E-2</v>
       </c>
       <c r="F61" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28581782299036218</v>
+        <v>0</v>
       </c>
       <c r="H61" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10">
       <c r="C62" s="2">
         <v>24</v>
       </c>
       <c r="D62" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83035201663177838</v>
+        <v>0.7833595361837723</v>
       </c>
       <c r="F62" s="22">
         <f t="shared" ca="1" si="2"/>
@@ -3620,54 +3625,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:8">
+    <row r="63" spans="3:10">
       <c r="C63" s="2">
         <v>25</v>
       </c>
       <c r="D63" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49824802828790704</v>
+        <v>5.4232010194991798E-2</v>
       </c>
       <c r="F63" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.61340374753958826</v>
       </c>
       <c r="H63" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10">
       <c r="C64" s="2">
         <v>26</v>
       </c>
       <c r="D64" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92833888468641756</v>
+        <v>7.413154540085809E-2</v>
       </c>
       <c r="F64" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68075791510991823</v>
+        <v>0</v>
       </c>
       <c r="H64" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="3:9">
@@ -3676,15 +3681,15 @@
       </c>
       <c r="D65" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.91165908475838953</v>
+        <v>0.22003425700550872</v>
       </c>
       <c r="F65" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3705,7 +3710,7 @@
       </c>
       <c r="E66" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2754653812940645</v>
+        <v>0.14080404805096236</v>
       </c>
       <c r="F66" s="22">
         <f t="shared" ca="1" si="2"/>
@@ -3730,11 +3735,11 @@
       </c>
       <c r="E67" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65266520014740137</v>
+        <v>0.1702219326535539</v>
       </c>
       <c r="F67" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -3751,23 +3756,23 @@
       </c>
       <c r="D68" s="23">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46828107457108459</v>
+        <v>9.7578102291894786E-2</v>
       </c>
       <c r="F68" s="22">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74838559332357291</v>
+        <v>0</v>
       </c>
       <c r="H68" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="3:9">
@@ -3803,11 +3808,11 @@
       </c>
       <c r="E74" s="3">
         <f ca="1">RAND()</f>
-        <v>0.41702850724056528</v>
+        <v>0.66277646109092814</v>
       </c>
       <c r="F74" s="1">
         <f ca="1">VLOOKUP(E74,$F$6:$H$10,3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" ref="G74:G83" ca="1" si="7">VLOOKUP(E74,$F$6:$H$18,3)</f>
@@ -3827,11 +3832,11 @@
       </c>
       <c r="D75" s="1">
         <f ca="1">IF(D74&lt;=4,(D74+F50),(D74-G74))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E75" s="3">
         <f t="shared" ref="E75:E76" ca="1" si="9">RAND()</f>
-        <v>0.60576509948414947</v>
+        <v>0.56647703390746906</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" ref="F75:F83" ca="1" si="10">VLOOKUP(E75,$F$6:$H$10,3)</f>
@@ -3855,23 +3860,23 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" ref="D76:D83" ca="1" si="11">IF(D75&lt;=0,0,IF((D75-G75)&lt;=0,0,(D75-G75)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>9.1323528838307411E-2</v>
+        <v>0.51487141496553768</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -3887,15 +3892,15 @@
       </c>
       <c r="E77" s="3">
         <f ca="1">RAND()</f>
-        <v>0.47853895661784684</v>
+        <v>0.86112512976335254</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -3915,11 +3920,11 @@
       </c>
       <c r="E78" s="3">
         <f t="shared" ref="E78:E83" ca="1" si="12">RAND()</f>
-        <v>0.27192721018244748</v>
+        <v>0.67300003195584457</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -3943,15 +3948,15 @@
       </c>
       <c r="E79" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.50356181937720901</v>
+        <v>0.95424499793814266</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -3971,7 +3976,7 @@
       </c>
       <c r="E80" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.54220628577690266</v>
+        <v>0.37020977590130066</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -3999,7 +4004,7 @@
       </c>
       <c r="E81" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>7.1955987428868884E-3</v>
+        <v>1.1320638567681618E-2</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -4027,7 +4032,7 @@
       </c>
       <c r="E82" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.10988179775667561</v>
+        <v>0.13323347001278063</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -4055,11 +4060,11 @@
       </c>
       <c r="E83" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>4.1487688299865044E-2</v>
+        <v>0.12404666702686107</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" ca="1" si="7"/>
